--- a/SchVictorina.WebAPI/Config/mountains.xlsx
+++ b/SchVictorina.WebAPI/Config/mountains.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\schvictorina\schvictorina\SchVictorina.WebAPI\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3DCCEA-C101-4B14-BBCF-83C62BC12C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C06FC2-27F2-4469-AC12-7ABC67752ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00B09F50-2E78-4BDE-A088-655306F8D8E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00B09F50-2E78-4BDE-A088-655306F8D8E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="2" r:id="rId1"/>
@@ -722,9 +722,6 @@
     <t>1 (6)</t>
   </si>
   <si>
-    <t>en: Sia Kangri</t>
-  </si>
-  <si>
     <t>1934</t>
   </si>
   <si>
@@ -737,9 +734,6 @@
     <t>7414</t>
   </si>
   <si>
-    <t>en: Kabru N</t>
-  </si>
-  <si>
     <t>7412</t>
   </si>
   <si>
@@ -758,9 +752,6 @@
     <t>4 (3)</t>
   </si>
   <si>
-    <t>en: Istor-o-Nal</t>
-  </si>
-  <si>
     <t>7403</t>
   </si>
   <si>
@@ -770,9 +761,6 @@
     <t>4 (5)</t>
   </si>
   <si>
-    <t>en: Ghent Kangri</t>
-  </si>
-  <si>
     <t>7401</t>
   </si>
   <si>
@@ -806,18 +794,12 @@
     <t>7382</t>
   </si>
   <si>
-    <t>en: Sherpi Kangri</t>
-  </si>
-  <si>
     <t>7380</t>
   </si>
   <si>
     <t>1 (1)</t>
   </si>
   <si>
-    <t>en: Labuche Kang</t>
-  </si>
-  <si>
     <t>7367</t>
   </si>
   <si>
@@ -836,9 +818,6 @@
     <t>1939</t>
   </si>
   <si>
-    <t>en: Abi Gamin</t>
-  </si>
-  <si>
     <t>7355</t>
   </si>
   <si>
@@ -854,369 +833,390 @@
     <t>7350</t>
   </si>
   <si>
-    <t>en: Gimmigela_x000D_
+    <t>7349</t>
+  </si>
+  <si>
+    <t>Чамланг</t>
+  </si>
+  <si>
+    <t>7321</t>
+  </si>
+  <si>
+    <t>7 (1)</t>
+  </si>
+  <si>
+    <t>Джомолхари</t>
+  </si>
+  <si>
+    <t>7315</t>
+  </si>
+  <si>
+    <t>Джомолхари, Гималаи</t>
+  </si>
+  <si>
+    <t>1937</t>
+  </si>
+  <si>
+    <t>Чонгтар</t>
+  </si>
+  <si>
+    <t>7312</t>
+  </si>
+  <si>
+    <t>Сигуанг-Ри</t>
+  </si>
+  <si>
+    <t>7309</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>The Crown</t>
+  </si>
+  <si>
+    <t>7295</t>
+  </si>
+  <si>
+    <t>Yengisogat, Каракорум</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>7294</t>
+  </si>
+  <si>
+    <t>Ассам, Гималаи</t>
+  </si>
+  <si>
+    <t>Поронг-Ри</t>
+  </si>
+  <si>
+    <t>7292</t>
+  </si>
+  <si>
+    <t>Баннтха-Бракк</t>
+  </si>
+  <si>
+    <t>7285</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>3 (13)</t>
+  </si>
+  <si>
+    <t>7283</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>7282</t>
+  </si>
+  <si>
+    <t>7281</t>
+  </si>
+  <si>
+    <t>Baiku, Гималаи</t>
+  </si>
+  <si>
+    <t>Музтаг-Тауэр</t>
+  </si>
+  <si>
+    <t>7276</t>
+  </si>
+  <si>
+    <t>Mana</t>
+  </si>
+  <si>
+    <t>7272</t>
+  </si>
+  <si>
+    <t>7 (3)</t>
+  </si>
+  <si>
+    <t>Дхаулагири VI</t>
+  </si>
+  <si>
+    <t>7268</t>
+  </si>
+  <si>
+    <t>7266</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>12 (8)</t>
+  </si>
+  <si>
+    <t>7250</t>
+  </si>
+  <si>
+    <t>0 (0)</t>
+  </si>
+  <si>
+    <t>Putha Hiunchuli</t>
+  </si>
+  <si>
+    <t>7246</t>
+  </si>
+  <si>
+    <t>11 (5)</t>
+  </si>
+  <si>
+    <t>7245</t>
+  </si>
+  <si>
+    <t>Mukut Parbat</t>
+  </si>
+  <si>
+    <t>7242</t>
+  </si>
+  <si>
+    <t>1951</t>
+  </si>
+  <si>
+    <t>7233</t>
+  </si>
+  <si>
+    <t>7227</t>
+  </si>
+  <si>
+    <t>14 (13)</t>
+  </si>
+  <si>
+    <t>Карджианг</t>
+  </si>
+  <si>
+    <t>7221</t>
+  </si>
+  <si>
+    <t>0 (2)</t>
+  </si>
+  <si>
+    <t>Аннапурна Южная</t>
+  </si>
+  <si>
+    <t>7219</t>
+  </si>
+  <si>
+    <t>10 (16)</t>
+  </si>
+  <si>
+    <t>Кхартапху</t>
+  </si>
+  <si>
+    <t>7213</t>
+  </si>
+  <si>
+    <t>1935</t>
+  </si>
+  <si>
+    <t>Тонгшанджиабу</t>
+  </si>
+  <si>
+    <t>7207</t>
+  </si>
+  <si>
+    <t>Lunana, Гималаи</t>
+  </si>
+  <si>
+    <t>Ноценкансари</t>
+  </si>
+  <si>
+    <t>7206</t>
+  </si>
+  <si>
+    <t>Лангтанг-Ри</t>
+  </si>
+  <si>
+    <t>7205</t>
+  </si>
+  <si>
+    <t>Кангпху-Канг</t>
+  </si>
+  <si>
+    <t>7204</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>Сингхи-Кангри</t>
+  </si>
+  <si>
+    <t>7202</t>
+  </si>
+  <si>
+    <t>Лупгхар-Шар</t>
+  </si>
+  <si>
+    <t>7200</t>
+  </si>
+  <si>
+    <t>Попытки восхождения</t>
+  </si>
+  <si>
+    <t>Первое восхождение</t>
+  </si>
+  <si>
+    <t>Высота</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>orderBy</t>
+  </si>
+  <si>
+    <t>orderByDesc</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>Какая самая высокая гора в мире?</t>
+  </si>
+  <si>
+    <t>Хиспар-Музтаг, Каракорум</t>
+  </si>
+  <si>
+    <t>Батура-Шар</t>
+  </si>
+  <si>
+    <t>Батура-Музтаг, Каракорум</t>
+  </si>
+  <si>
+    <t>Ракапоши-Харамош, Каракорум</t>
+  </si>
+  <si>
+    <t>Салторо, Каракорум</t>
+  </si>
+  <si>
+    <t>Налаканкар-Гимал, Гималаи</t>
+  </si>
+  <si>
+    <t>Сасер-Кангри I</t>
+  </si>
+  <si>
+    <t>Сасер-Музтаг, Каракорум</t>
+  </si>
+  <si>
+    <t>Шиспар</t>
+  </si>
+  <si>
+    <t>Терам Кангри I</t>
+  </si>
+  <si>
+    <t>Сиачен-Музтаг, Каракорум</t>
+  </si>
+  <si>
+    <t>Малубитинг</t>
+  </si>
+  <si>
+    <t>Янгра(Ганеш I)</t>
+  </si>
+  <si>
+    <t>Ултар</t>
+  </si>
+  <si>
+    <t>Римо-Музтаг, Каракорум</t>
+  </si>
+  <si>
+    <t>Терам Кангри III</t>
+  </si>
+  <si>
+    <t>Панмах-Музтаг, Каракорум</t>
+  </si>
+  <si>
+    <t>Нагарзе, Гималаи</t>
+  </si>
+  <si>
+    <t>Лунана, Гималаи</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Какая гора с высотой {Высота}?</t>
+  </si>
+  <si>
+    <t>Какая гора с высотой {Высота} в {Расположение}?</t>
+  </si>
+  <si>
+    <t>Расположение</t>
+  </si>
+  <si>
+    <t>Sia Kangri</t>
+  </si>
+  <si>
+    <t>Kabru N</t>
+  </si>
+  <si>
+    <t>Istor-o-Nal</t>
+  </si>
+  <si>
+    <t>Ghent Kangri</t>
+  </si>
+  <si>
+    <t>Sherpi Kangri</t>
+  </si>
+  <si>
+    <t>Labuche Kang</t>
+  </si>
+  <si>
+    <t>Abi Gamin</t>
+  </si>
+  <si>
+    <t>Gimmigela_x000D_
 (The Twins)</t>
   </si>
   <si>
-    <t>en: Saraghrar</t>
-  </si>
-  <si>
-    <t>7349</t>
-  </si>
-  <si>
-    <t>Чамланг</t>
-  </si>
-  <si>
-    <t>7321</t>
-  </si>
-  <si>
-    <t>7 (1)</t>
-  </si>
-  <si>
-    <t>Джомолхари</t>
-  </si>
-  <si>
-    <t>7315</t>
-  </si>
-  <si>
-    <t>Джомолхари, Гималаи</t>
-  </si>
-  <si>
-    <t>1937</t>
-  </si>
-  <si>
-    <t>Чонгтар</t>
-  </si>
-  <si>
-    <t>en: Baltoro Kangri</t>
-  </si>
-  <si>
-    <t>7312</t>
-  </si>
-  <si>
-    <t>Сигуанг-Ри</t>
-  </si>
-  <si>
-    <t>7309</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>The Crown</t>
-  </si>
-  <si>
-    <t>7295</t>
-  </si>
-  <si>
-    <t>Yengisogat, Каракорум</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>en: Gyala Peri</t>
-  </si>
-  <si>
-    <t>7294</t>
-  </si>
-  <si>
-    <t>Ассам, Гималаи</t>
-  </si>
-  <si>
-    <t>Поронг-Ри</t>
-  </si>
-  <si>
-    <t>7292</t>
-  </si>
-  <si>
-    <t>Баннтха-Бракк</t>
-  </si>
-  <si>
-    <t>7285</t>
-  </si>
-  <si>
-    <t>1977</t>
-  </si>
-  <si>
-    <t>3 (13)</t>
-  </si>
-  <si>
-    <t>en: Yutmaru Sar</t>
-  </si>
-  <si>
-    <t>7283</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>en:Baltistan Peak (K6)</t>
-  </si>
-  <si>
-    <t>7282</t>
-  </si>
-  <si>
-    <t>en: Kangpenqing_x000D_
+    <t>Saraghrar</t>
+  </si>
+  <si>
+    <t>Baltoro Kangri</t>
+  </si>
+  <si>
+    <t>Gyala Peri</t>
+  </si>
+  <si>
+    <t>Yutmaru Sar</t>
+  </si>
+  <si>
+    <t>Kangpenqing_x000D_
 (Gang Benchhen)</t>
   </si>
   <si>
-    <t>7281</t>
-  </si>
-  <si>
-    <t>Baiku, Гималаи</t>
-  </si>
-  <si>
-    <t>Музтаг-Тауэр</t>
-  </si>
-  <si>
-    <t>7276</t>
-  </si>
-  <si>
-    <t>Mana</t>
-  </si>
-  <si>
-    <t>7272</t>
-  </si>
-  <si>
-    <t>7 (3)</t>
-  </si>
-  <si>
-    <t>Дхаулагири VI</t>
-  </si>
-  <si>
-    <t>7268</t>
-  </si>
-  <si>
-    <t>en: Diran</t>
-  </si>
-  <si>
-    <t>7266</t>
-  </si>
-  <si>
-    <t>1968</t>
-  </si>
-  <si>
-    <t>12 (8)</t>
-  </si>
-  <si>
-    <t>en: Labuche Kang III / East</t>
-  </si>
-  <si>
-    <t>7250</t>
-  </si>
-  <si>
-    <t>0 (0)</t>
-  </si>
-  <si>
-    <t>Putha Hiunchuli</t>
-  </si>
-  <si>
-    <t>7246</t>
-  </si>
-  <si>
-    <t>11 (5)</t>
-  </si>
-  <si>
-    <t>en: Apsarasas Kangri</t>
-  </si>
-  <si>
-    <t>7245</t>
-  </si>
-  <si>
-    <t>Mukut Parbat</t>
-  </si>
-  <si>
-    <t>7242</t>
-  </si>
-  <si>
-    <t>1951</t>
-  </si>
-  <si>
-    <t>en: Rimo III</t>
-  </si>
-  <si>
-    <t>7233</t>
-  </si>
-  <si>
-    <t>en:Langtang Lirung</t>
-  </si>
-  <si>
-    <t>7227</t>
-  </si>
-  <si>
-    <t>14 (13)</t>
-  </si>
-  <si>
-    <t>Карджианг</t>
-  </si>
-  <si>
-    <t>7221</t>
-  </si>
-  <si>
-    <t>0 (2)</t>
-  </si>
-  <si>
-    <t>Аннапурна Южная</t>
-  </si>
-  <si>
-    <t>7219</t>
-  </si>
-  <si>
-    <t>10 (16)</t>
-  </si>
-  <si>
-    <t>Кхартапху</t>
-  </si>
-  <si>
-    <t>7213</t>
-  </si>
-  <si>
-    <t>1935</t>
-  </si>
-  <si>
-    <t>Тонгшанджиабу</t>
-  </si>
-  <si>
-    <t>7207</t>
-  </si>
-  <si>
-    <t>Lunana, Гималаи</t>
-  </si>
-  <si>
-    <t>en:Malangutti Sar</t>
-  </si>
-  <si>
-    <t>Ноценкансари</t>
-  </si>
-  <si>
-    <t>7206</t>
-  </si>
-  <si>
-    <t>Лангтанг-Ри</t>
-  </si>
-  <si>
-    <t>7205</t>
-  </si>
-  <si>
-    <t>Кангпху-Канг</t>
-  </si>
-  <si>
-    <t>7204</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>Сингхи-Кангри</t>
-  </si>
-  <si>
-    <t>7202</t>
-  </si>
-  <si>
-    <t>Лупгхар-Шар</t>
-  </si>
-  <si>
-    <t>7200</t>
-  </si>
-  <si>
-    <t>Попытки восхождения</t>
-  </si>
-  <si>
-    <t>Первое восхождение</t>
-  </si>
-  <si>
-    <t>Высота</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>equal</t>
-  </si>
-  <si>
-    <t>orderBy</t>
-  </si>
-  <si>
-    <t>orderByDesc</t>
-  </si>
-  <si>
-    <t>answer</t>
-  </si>
-  <si>
-    <t>Какая самая высокая гора в мире?</t>
-  </si>
-  <si>
-    <t>Хиспар-Музтаг, Каракорум</t>
-  </si>
-  <si>
-    <t>Батура-Шар</t>
-  </si>
-  <si>
-    <t>Батура-Музтаг, Каракорум</t>
-  </si>
-  <si>
-    <t>Ракапоши-Харамош, Каракорум</t>
-  </si>
-  <si>
-    <t>Салторо, Каракорум</t>
-  </si>
-  <si>
-    <t>Налаканкар-Гимал, Гималаи</t>
-  </si>
-  <si>
-    <t>Сасер-Кангри I</t>
-  </si>
-  <si>
-    <t>Сасер-Музтаг, Каракорум</t>
-  </si>
-  <si>
-    <t>Шиспар</t>
-  </si>
-  <si>
-    <t>Терам Кангри I</t>
-  </si>
-  <si>
-    <t>Сиачен-Музтаг, Каракорум</t>
-  </si>
-  <si>
-    <t>Малубитинг</t>
-  </si>
-  <si>
-    <t>Янгра(Ганеш I)</t>
-  </si>
-  <si>
-    <t>Ултар</t>
-  </si>
-  <si>
-    <t>Римо-Музтаг, Каракорум</t>
-  </si>
-  <si>
-    <t>Терам Кангри III</t>
-  </si>
-  <si>
-    <t>Панмах-Музтаг, Каракорум</t>
-  </si>
-  <si>
-    <t>Нагарзе, Гималаи</t>
-  </si>
-  <si>
-    <t>Лунана, Гималаи</t>
-  </si>
-  <si>
-    <t>Название</t>
-  </si>
-  <si>
-    <t>Какая гора с высотой {Высота}?</t>
-  </si>
-  <si>
-    <t>Какая гора с высотой {Высота} в {Расположение}?</t>
-  </si>
-  <si>
-    <t>Расположение</t>
+    <t>Diran</t>
+  </si>
+  <si>
+    <t>Labuche Kang III / East</t>
+  </si>
+  <si>
+    <t>Apsarasas Kangri</t>
+  </si>
+  <si>
+    <t>Rimo III</t>
+  </si>
+  <si>
+    <t>Baltistan Peak (K6)</t>
+  </si>
+  <si>
+    <t>Langtang Lirung</t>
+  </si>
+  <si>
+    <t>Malangutti Sar</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1261,15 +1261,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1289,7 +1290,9 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1327,14 +1330,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCB2890A-8C1C-446A-856F-EF87457184B4}" name="Список_высочайших_гор_править___править_код" displayName="Список_высочайших_гор_править___править_код" ref="A1:E117" tableType="queryTable" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCB2890A-8C1C-446A-856F-EF87457184B4}" name="Список_высочайших_гор_править___править_код" displayName="Список_высочайших_гор_править___править_код" ref="A1:E117" tableType="queryTable" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E117" xr:uid="{CCB2890A-8C1C-446A-856F-EF87457184B4}"/>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{9A324A4B-8ACB-4542-928A-30BED8F9DDD4}" uniqueName="3" name="Название" queryTableFieldId="3" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{22C427D7-42D0-41F5-B8E5-73BB0581443F}" uniqueName="4" name="Высота" queryTableFieldId="4" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{AD500841-3A8F-4A65-8141-77DA969E7BF2}" uniqueName="5" name="Место расположения" queryTableFieldId="5" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{D201F922-1BDA-4BDF-B700-6E35E57B2908}" uniqueName="9" name="Первое восхождение" queryTableFieldId="9" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{BA26847C-C186-4F65-AF4F-A0CC8621C9D4}" uniqueName="10" name="Попытки восхождения" queryTableFieldId="10" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{9A324A4B-8ACB-4542-928A-30BED8F9DDD4}" uniqueName="3" name="Название" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{22C427D7-42D0-41F5-B8E5-73BB0581443F}" uniqueName="4" name="Высота" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{AD500841-3A8F-4A65-8141-77DA969E7BF2}" uniqueName="5" name="Место расположения" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{D201F922-1BDA-4BDF-B700-6E35E57B2908}" uniqueName="9" name="Первое восхождение" queryTableFieldId="9" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{BA26847C-C186-4F65-AF4F-A0CC8621C9D4}" uniqueName="10" name="Попытки восхождения" queryTableFieldId="10" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1639,7 +1642,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FA2187-229B-4411-80C6-4A214416FE73}">
   <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1653,19 +1658,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1999,7 +2004,7 @@
         <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>24</v>
@@ -2050,7 +2055,7 @@
         <v>83</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>84</v>
@@ -2112,13 +2117,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>98</v>
@@ -2135,7 +2140,7 @@
         <v>101</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>102</v>
@@ -2152,7 +2157,7 @@
         <v>105</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>41</v>
@@ -2169,7 +2174,7 @@
         <v>108</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>109</v>
@@ -2220,7 +2225,7 @@
         <v>118</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>119</v>
@@ -2288,7 +2293,7 @@
         <v>132</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>133</v>
@@ -2299,13 +2304,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>136</v>
@@ -2384,13 +2389,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>151</v>
@@ -2407,7 +2412,7 @@
         <v>153</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>24</v>
@@ -2577,7 +2582,7 @@
         <v>190</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>191</v>
@@ -2594,7 +2599,7 @@
         <v>192</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>180</v>
@@ -2628,7 +2633,7 @@
         <v>196</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>199</v>
@@ -2645,7 +2650,7 @@
         <v>201</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>202</v>
@@ -2662,7 +2667,7 @@
         <v>204</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>187</v>
@@ -2673,13 +2678,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>60</v>
@@ -2707,13 +2712,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>84</v>
@@ -2764,7 +2769,7 @@
         <v>219</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>151</v>
@@ -2775,7 +2780,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>221</v>
@@ -2792,30 +2797,30 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>224</v>
+        <v>369</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="C69" s="1" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>53</v>
@@ -2826,10 +2831,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>229</v>
+        <v>370</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>11</v>
@@ -2843,10 +2848,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>7</v>
@@ -2860,67 +2865,67 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>236</v>
+        <v>371</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>240</v>
+        <v>372</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>154</v>
@@ -2928,27 +2933,27 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>23</v>
@@ -2957,18 +2962,18 @@
         <v>76</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>199</v>
@@ -2979,33 +2984,33 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>252</v>
+        <v>373</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>255</v>
+        <v>374</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>130</v>
@@ -3013,16 +3018,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>223</v>
@@ -3030,44 +3035,44 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>262</v>
+        <v>375</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>268</v>
+      <c r="A84" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>11</v>
@@ -3081,10 +3086,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>269</v>
+        <v>377</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>125</v>
@@ -3098,10 +3103,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>3</v>
@@ -3110,32 +3115,32 @@
         <v>80</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>7</v>
@@ -3144,15 +3149,15 @@
         <v>202</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>279</v>
+        <v>378</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>87</v>
@@ -3166,16 +3171,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>103</v>
@@ -3183,30 +3188,30 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>288</v>
+        <v>379</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>180</v>
@@ -3217,10 +3222,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>52</v>
@@ -3234,44 +3239,44 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>297</v>
+        <v>380</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>300</v>
+        <v>386</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>87</v>
@@ -3280,32 +3285,32 @@
         <v>76</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>302</v>
+      <c r="A97" s="3" t="s">
+        <v>381</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>176</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>7</v>
@@ -3319,27 +3324,27 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>23</v>
@@ -3353,44 +3358,44 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>312</v>
+        <v>382</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>316</v>
+        <v>383</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>23</v>
@@ -3399,18 +3404,18 @@
         <v>8</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>322</v>
+        <v>384</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>98</v>
@@ -3421,16 +3426,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>103</v>
@@ -3438,10 +3443,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>327</v>
+        <v>385</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>186</v>
@@ -3455,10 +3460,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>329</v>
+        <v>387</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>52</v>
@@ -3467,15 +3472,15 @@
         <v>220</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>157</v>
@@ -3484,15 +3489,15 @@
         <v>158</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>36</v>
@@ -3501,21 +3506,21 @@
         <v>53</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>130</v>
@@ -3523,30 +3528,30 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>133</v>
@@ -3557,13 +3562,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>180</v>
@@ -3574,10 +3579,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>52</v>
@@ -3586,21 +3591,21 @@
         <v>129</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>130</v>
@@ -3608,13 +3613,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>98</v>
@@ -3625,13 +3630,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>199</v>
@@ -3652,7 +3657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAB808D-90D0-4A71-B2CE-BF3EFD135BB5}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3667,52 +3672,52 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="B1" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="C1" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="D1" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="E1" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="F1" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2" t="s">
         <v>365</v>
-      </c>
-      <c r="D2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F2" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="F3" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="C4" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="F4" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/SchVictorina.WebAPI/Config/mountains.xlsx
+++ b/SchVictorina.WebAPI/Config/mountains.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\schvictorina\schvictorina\SchVictorina.WebAPI\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECFCDA04-8E99-4BF4-88C6-D80A8A639D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717FBB7B-EEAC-45C9-8722-52CFB2D3DE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58996942-A194-4CF7-8E0B-222C89F5D031}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58996942-A194-4CF7-8E0B-222C89F5D031}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Данные" sheetId="1" r:id="rId1"/>
+    <sheet name="Вопросы" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Данные!$A$1:$E$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Название</t>
   </si>
@@ -46,9 +47,6 @@
     <t>Высота</t>
   </si>
   <si>
-    <t>Местоположение</t>
-  </si>
-  <si>
     <t>Первое восхождение</t>
   </si>
   <si>
@@ -70,12 +68,6 @@
     <t>Европа</t>
   </si>
   <si>
-    <t>Драконские горы</t>
-  </si>
-  <si>
-    <t>Каспийские горы</t>
-  </si>
-  <si>
     <t>Горы Атлас</t>
   </si>
   <si>
@@ -88,9 +80,6 @@
     <t>Гималаи</t>
   </si>
   <si>
-    <t>Японские Альпы</t>
-  </si>
-  <si>
     <t>Тянь-Шань</t>
   </si>
   <si>
@@ -115,17 +104,80 @@
     <t>Пиренеи</t>
   </si>
   <si>
-    <t>Балканские горы</t>
-  </si>
-  <si>
     <t>Татры</t>
+  </si>
+  <si>
+    <t>Россия</t>
+  </si>
+  <si>
+    <t>Италия</t>
+  </si>
+  <si>
+    <t>Китай</t>
+  </si>
+  <si>
+    <t>Марокко</t>
+  </si>
+  <si>
+    <t>Драконовы горы</t>
+  </si>
+  <si>
+    <t>ЮАР</t>
+  </si>
+  <si>
+    <t>Польша</t>
+  </si>
+  <si>
+    <t>Капские горы</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>orderBy</t>
+  </si>
+  <si>
+    <t>orderByDesc</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>Какая самая высокая гора в {Континент}</t>
+  </si>
+  <si>
+    <t>Какую гору покорили первой в {Континент}</t>
+  </si>
+  <si>
+    <t>Какую гору покорили первой</t>
+  </si>
+  <si>
+    <t>Аргентина</t>
+  </si>
+  <si>
+    <t>Испания</t>
+  </si>
+  <si>
+    <t>Какая самая высокая гора в {Страна}</t>
+  </si>
+  <si>
+    <t>Страна</t>
+  </si>
+  <si>
+    <t>Новая зеландия</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,8 +194,24 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFBDC1C6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +221,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -169,12 +243,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -489,184 +568,399 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56986E0B-A4A6-4723-A20F-D2A7B21D0681}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6">
+        <v>4509</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1933</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4478</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1865</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1854</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1854</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
+        <v>8848</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1953</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4167</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1931</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3755</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1889</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2655</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1796</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2502</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1923</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6961</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1934</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7723</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1985</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3404</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1842</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2063</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1906</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B14" s="3">
+        <v>7439</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1931</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1895</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D15" s="3">
+        <v>1929</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3724</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1894</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E18" xr:uid="{56986E0B-A4A6-4723-A20F-D2A7B21D0681}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E18">
-      <sortCondition ref="A1:A18"/>
+  <autoFilter ref="A1:E16" xr:uid="{56986E0B-A4A6-4723-A20F-D2A7B21D0681}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E16">
+      <sortCondition ref="A1:A16"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9647E8-66DC-4ED7-9D1E-DC0058036050}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SchVictorina.WebAPI/Config/mountains.xlsx
+++ b/SchVictorina.WebAPI/Config/mountains.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\schvictorina\schvictorina\SchVictorina.WebAPI\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717FBB7B-EEAC-45C9-8722-52CFB2D3DE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57767795-4269-479F-8C14-266704E40169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58996942-A194-4CF7-8E0B-222C89F5D031}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Вопросы" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Данные!$A$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Данные!$A$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>Название</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>Южные Альпы</t>
-  </si>
-  <si>
-    <t>Водораздельный хребет</t>
   </si>
   <si>
     <t>Альпы</t>
@@ -177,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,14 +194,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF202122"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFBDC1C6"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -243,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -251,7 +240,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -568,23 +556,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56986E0B-A4A6-4723-A20F-D2A7B21D0681}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="24" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -592,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -601,7 +589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -609,7 +597,7 @@
         <v>4509</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="5">
         <v>1933</v>
@@ -618,15 +606,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3">
         <v>4478</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3">
         <v>1865</v>
@@ -635,234 +623,217 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1854</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>8848</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3">
-        <v>1854</v>
+        <v>1953</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>8848</v>
+        <v>4167</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="3">
-        <v>1953</v>
+        <v>1931</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3">
-        <v>4167</v>
+        <v>3755</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3">
-        <v>1931</v>
+        <v>1889</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>26</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="3">
-        <v>3755</v>
+        <v>2655</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="3">
-        <v>1889</v>
+        <v>1796</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2502</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1923</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6961</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1934</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3">
+        <v>7723</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1985</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3">
-        <v>2655</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1796</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B11" s="3">
+        <v>3404</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1842</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2502</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1923</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="3">
-        <v>6961</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1934</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3">
-        <v>7723</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1985</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="3">
-        <v>3404</v>
+        <v>2063</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3">
-        <v>1842</v>
+        <v>1906</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>7439</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1931</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1895</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3">
-        <v>2063</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1906</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>7439</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D14" s="3">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>11</v>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B15" s="3">
-        <v>1895</v>
+        <v>3724</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3">
-        <v>1929</v>
+        <v>1894</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3">
-        <v>3724</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1894</v>
-      </c>
-      <c r="E16" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E16" xr:uid="{56986E0B-A4A6-4723-A20F-D2A7B21D0681}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E16">
-      <sortCondition ref="A1:A16"/>
+  <autoFilter ref="A1:E15" xr:uid="{56986E0B-A4A6-4723-A20F-D2A7B21D0681}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E15">
+      <sortCondition ref="A1:A15"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -878,38 +849,38 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -921,9 +892,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -931,29 +902,29 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F5" t="s">

--- a/SchVictorina.WebAPI/Config/mountains.xlsx
+++ b/SchVictorina.WebAPI/Config/mountains.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\schvictorina\schvictorina\SchVictorina.WebAPI\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57767795-4269-479F-8C14-266704E40169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A7770A-FC58-4439-A450-93836CFB8B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58996942-A194-4CF7-8E0B-222C89F5D031}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{58996942-A194-4CF7-8E0B-222C89F5D031}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
     <sheet name="Вопросы" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Данные!$A$1:$E$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Данные!$A$1:$E$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Название</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Европа</t>
   </si>
   <si>
-    <t>Горы Атлас</t>
-  </si>
-  <si>
     <t>Алтай</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>Китай</t>
   </si>
   <si>
-    <t>Марокко</t>
-  </si>
-  <si>
     <t>Драконовы горы</t>
   </si>
   <si>
@@ -161,13 +155,16 @@
     <t>Испания</t>
   </si>
   <si>
-    <t>Какая самая высокая гора в {Страна}</t>
-  </si>
-  <si>
     <t>Страна</t>
   </si>
   <si>
     <t>Новая зеландия</t>
+  </si>
+  <si>
+    <t>Когда покорили {Название}</t>
+  </si>
+  <si>
+    <t>Какую гору покорили в {Первое восхождение}</t>
   </si>
 </sst>
 </file>
@@ -556,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56986E0B-A4A6-4723-A20F-D2A7B21D0681}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -591,13 +588,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6">
         <v>4509</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="5">
         <v>1933</v>
@@ -608,13 +605,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3">
         <v>4478</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3">
         <v>1865</v>
@@ -625,13 +622,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3">
         <v>8848</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3">
         <v>1953</v>
@@ -642,104 +639,104 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3">
-        <v>4167</v>
+        <v>3755</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="3">
-        <v>1931</v>
+        <v>1889</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2655</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3">
-        <v>3755</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3">
+        <v>1796</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="3">
-        <v>1889</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="B7" s="3">
+        <v>2502</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1923</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6961</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1934</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7723</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1985</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3">
-        <v>2655</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1796</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="B10" s="3">
+        <v>3404</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1842</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2502</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1923</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3">
-        <v>6961</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1934</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3">
-        <v>7723</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1985</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -747,93 +744,76 @@
         <v>19</v>
       </c>
       <c r="B11" s="3">
-        <v>3404</v>
+        <v>2063</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3">
-        <v>1842</v>
+        <v>1906</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
+      <c r="A12" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B12" s="3">
-        <v>2063</v>
+        <v>7439</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3">
-        <v>1906</v>
+        <v>1931</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>7439</v>
+        <v>1895</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
+      <c r="A14" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B14" s="3">
-        <v>1895</v>
+        <v>3724</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3">
-        <v>1929</v>
+        <v>1894</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3724</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1894</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A15" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E15" xr:uid="{56986E0B-A4A6-4723-A20F-D2A7B21D0681}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E15">
-      <sortCondition ref="A1:A15"/>
+  <autoFilter ref="A1:E14" xr:uid="{56986E0B-A4A6-4723-A20F-D2A7B21D0681}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E14">
+      <sortCondition ref="A1:A14"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -843,10 +823,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9647E8-66DC-4ED7-9D1E-DC0058036050}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" activeCellId="1" sqref="F4 F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,32 +835,32 @@
     <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -894,7 +874,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -908,7 +888,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
@@ -921,13 +901,15 @@
       <c r="A5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="F6" s="7" t="s">
         <v>0</v>
       </c>
     </row>

--- a/SchVictorina.WebAPI/Config/mountains.xlsx
+++ b/SchVictorina.WebAPI/Config/mountains.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\schvictorina\schvictorina\SchVictorina.WebAPI\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A7770A-FC58-4439-A450-93836CFB8B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271261E0-9BDB-4019-8A5E-9DBEDB39282A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{58996942-A194-4CF7-8E0B-222C89F5D031}"/>
   </bookViews>
@@ -140,15 +140,6 @@
     <t>answer</t>
   </si>
   <si>
-    <t>Какая самая высокая гора в {Континент}</t>
-  </si>
-  <si>
-    <t>Какую гору покорили первой в {Континент}</t>
-  </si>
-  <si>
-    <t>Какую гору покорили первой</t>
-  </si>
-  <si>
     <t>Аргентина</t>
   </si>
   <si>
@@ -161,10 +152,19 @@
     <t>Новая зеландия</t>
   </si>
   <si>
-    <t>Когда покорили {Название}</t>
-  </si>
-  <si>
-    <t>Какую гору покорили в {Первое восхождение}</t>
+    <t>Какая самая высокая гора в {Континент}?</t>
+  </si>
+  <si>
+    <t>Какую гору покорили первой в {Континент}?</t>
+  </si>
+  <si>
+    <t>Какую гору покорили первой?</t>
+  </si>
+  <si>
+    <t>Когда покорили {Название}?</t>
+  </si>
+  <si>
+    <t>Какую гору покорили в {Первое восхождение}?</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -696,7 +696,7 @@
         <v>6961</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3">
         <v>1934</v>
@@ -730,7 +730,7 @@
         <v>3404</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3">
         <v>1842</v>
@@ -798,7 +798,7 @@
         <v>3724</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D14" s="3">
         <v>1894</v>
@@ -826,7 +826,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" activeCellId="1" sqref="F4 F6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,8 +834,7 @@
     <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -860,12 +859,12 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
@@ -874,12 +873,12 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -888,9 +887,9 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="7" t="s">
